--- a/code/图书馆信息.xlsx
+++ b/code/图书馆信息.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaxunsong/Desktop/Berkeley/图书馆项目/mini-library/code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95C95B2-4DF7-7A48-8BF7-023C3DCA5C18}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="读者" sheetId="1" r:id="rId1"/>
-    <sheet name="书籍" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="读者" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="书籍" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>借书号</t>
   </si>
@@ -41,27 +36,30 @@
     <t>借书额度</t>
   </si>
   <si>
+    <t>6101</t>
+  </si>
+  <si>
+    <t>张双升</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>六甲</t>
+  </si>
+  <si>
+    <t>开通</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
-    <t>张双升</t>
-  </si>
-  <si>
     <t>宋嘉勋</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>六甲</t>
-  </si>
-  <si>
     <t>教师</t>
   </si>
   <si>
-    <t>开通</t>
-  </si>
-  <si>
     <t>ISBN</t>
   </si>
   <si>
@@ -101,93 +99,107 @@
     <t>9787115416902</t>
   </si>
   <si>
+    <t>《算法》</t>
+  </si>
+  <si>
+    <t>(美)Robert Sedgewick，(美)Kevin Wayne著</t>
+  </si>
+  <si>
+    <t>人民邮电出版社</t>
+  </si>
+  <si>
+    <t>933页;21cm</t>
+  </si>
+  <si>
+    <t>CNY129.00</t>
+  </si>
+  <si>
+    <t>电子计算机--算法理论--英文</t>
+  </si>
+  <si>
+    <t>TP301.6</t>
+  </si>
+  <si>
+    <t>本书作为算法领域经典的参考书，全面介绍了关于算法和数据结构的必备知识，并特别针对排序、搜索、图处理和字符串处理进行了论述。第4版具体给出了每位程序员应知应会的50个算法，提供了实际代码，而且这些Java代码实现采用了模块化的编程风格，读者可以方便地加以改造。</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>9787103020944</t>
   </si>
   <si>
-    <t>《算法》</t>
-  </si>
-  <si>
     <t>《巴赫初级钢琴曲集》</t>
   </si>
   <si>
-    <t>(美)Robert Sedgewick，(美)Kevin Wayne著</t>
-  </si>
-  <si>
     <t>[(德)J.S.巴赫(J.S.Bach)曲]</t>
   </si>
   <si>
-    <t>人民邮电出版社</t>
-  </si>
-  <si>
     <t>人民音乐出版社</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>933页;21cm</t>
-  </si>
-  <si>
     <t>35页;31cm</t>
   </si>
   <si>
-    <t>CNY129.00</t>
-  </si>
-  <si>
     <t>CNY10.40</t>
   </si>
   <si>
-    <t>电子计算机--算法理论--英文</t>
-  </si>
-  <si>
     <t>钢琴谱--德国--近代--选集</t>
   </si>
   <si>
-    <t>TP301.6</t>
-  </si>
-  <si>
     <t>J657.41(516)</t>
   </si>
   <si>
-    <t>本书作为算法领域经典的参考书，全面介绍了关于算法和数据结构的必备知识，并特别针对排序、搜索、图处理和字符串处理进行了论述。第4版具体给出了每位程序员应知应会的50个算法，提供了实际代码，而且这些Java代码实现采用了模块化的编程风格，读者可以方便地加以改造。</t>
-  </si>
-  <si>
     <t>本书共收入巴赫的钢琴小品28首，其程度编排由浅入深，是每一位初级钢琴学习者必弹的曲目。</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>9783319130712</t>
+  </si>
+  <si>
+    <t>《Data Structures and Algorithms with Python》</t>
+  </si>
+  <si>
+    <t>Hubbard, Steve</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>2015-1-22</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>EUR 50.84</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -202,44 +214,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -286,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,27 +312,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,24 +346,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,16 +521,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,177 +554,212 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>6101</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
         <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
       </c>
       <c r="L3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
         <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>